--- a/biology/Botanique/Jaapiales/Jaapiales.xlsx
+++ b/biology/Botanique/Jaapiales/Jaapiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les  Jaapiales sont un nouvel ordre de champignons de la sous-classe des Agaricomycetidae. Il a été décrit pour la première fois en 2010 pour contenir les deux espèces de l'ancien genre Jaapia, genre de champignons résupinés lignicoles, jusque-là classés dans les Boletales. L'analyse moléculaire phylogénétique a montré qu'il s'agissait d'un groupe frère, soit de l'un des deux clades issu de la scission d'une seule lignée, l'autre étant les Agaricomycetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les  Jaapiales sont un nouvel ordre de champignons de la sous-classe des Agaricomycetidae. Il a été décrit pour la première fois en 2010 pour contenir les deux espèces de l'ancien genre Jaapia, genre de champignons résupinés lignicoles, jusque-là classés dans les Boletales. L'analyse moléculaire phylogénétique a montré qu'il s'agissait d'un groupe frère, soit de l'un des deux clades issu de la scission d'une seule lignée, l'autre étant les Agaricomycetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Jaapia[2], d'abord décrit par le mycologue italien Giacomo Bresadola en 1911[3], contient deux espèces largement distribuées[4] : Jaapia argillacea et Jaapia ochroleuca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jaapia, d'abord décrit par le mycologue italien Giacomo Bresadola en 1911, contient deux espèces largement distribuées : Jaapia argillacea et Jaapia ochroleuca.
 </t>
         </is>
       </c>
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Classification phylogénique des Jaapiales
+          <t>Classification phylogénique des Jaapiales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 Russulales
 Agaricomycetidae
